--- a/doc/ue_pso_android.xlsx
+++ b/doc/ue_pso_android.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250E42E-54AE-4302-9955-45E6F8B8B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>static FORCEINLINE bool SupportsProgramBinary() { return true; }</t>
+  </si>
+  <si>
+    <t>static FORCEINLINE void GetProgramBinary(GLuint Program, GLsizei BufSize, GLsizei* Length, GLenum* BinaryFormat, void* Binary)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>glGetProgramBinary(Program, BufSize, Length, BinaryFormat, Binary);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static FORCEINLINE void ProgramBinary(GLuint Program, GLenum BinaryFormat, const void* Binary, GLsizei Length)</t>
+  </si>
+  <si>
+    <t>glProgramBinary(Program, BinaryFormat, Binary, Length);</t>
+  </si>
+  <si>
+    <t>是否支持二进制Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二进制数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从二进制数据初始化Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +391,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_pso_android.xlsx
+++ b/doc/ue_pso_android.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250E42E-54AE-4302-9955-45E6F8B8B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74362AE7-29F9-41B9-8562-1DDD43BF3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="ushaderbytecode" sheetId="4" r:id="rId2"/>
+    <sheet name="ShaderMap" sheetId="6" r:id="rId3"/>
+    <sheet name="shadercode&amp;shader" sheetId="5" r:id="rId4"/>
+    <sheet name="link" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="236">
   <si>
     <t>static FORCEINLINE bool SupportsProgramBinary() { return true; }</t>
   </si>
@@ -57,6 +62,712 @@
   </si>
   <si>
     <t>从二进制数据初始化Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK时优先使用二进制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;uint8&gt; CachedProgramBinary;</t>
+  </si>
+  <si>
+    <t>GLuint Program = 0;</t>
+  </si>
+  <si>
+    <t>bool bShouldLinkProgram = true;</t>
+  </si>
+  <si>
+    <t>if (FOpenGLProgramBinaryCache::IsEnabled())</t>
+  </si>
+  <si>
+    <t>// Try to create program from a saved binary</t>
+  </si>
+  <si>
+    <t>bShouldLinkProgram = !FOpenGLProgramBinaryCache::UseCachedProgram(Program, Config.ProgramKey, CachedProgramBinary);</t>
+  </si>
+  <si>
+    <t>if (bShouldLinkProgram)</t>
+  </si>
+  <si>
+    <t>// In case there is no saved binary in the cache, compile required shaders we have deferred before</t>
+  </si>
+  <si>
+    <t>FOpenGLProgramBinaryCache::CompilePendingShaders(Config);</t>
+  </si>
+  <si>
+    <t>查找二进制，如果创建了则会返回program直接用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_VERTEX].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_VERTEX_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_VERTEX].Resource);</t>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_PIXEL].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_FRAGMENT_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_PIXEL].Resource);</t>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_GEOMETRY].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_GEOMETRY_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_GEOMETRY].Resource);</t>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_HULL].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_TESS_CONTROL_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_HULL].Resource);</t>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_DOMAIN].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_TESS_EVALUATION_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_DOMAIN].Resource);</t>
+  </si>
+  <si>
+    <t>if (Config.Shaders[CrossCompiler::SHADER_STAGE_COMPUTE].Resource)</t>
+  </si>
+  <si>
+    <t>FOpenGL::UseProgramStages(Program, GL_COMPUTE_SHADER_BIT, Config.Shaders[CrossCompiler::SHADER_STAGE_COMPUTE].Resource);</t>
+  </si>
+  <si>
+    <t>if( !FOpenGL::SupportsSeparateShaderObjects() )</t>
+  </si>
+  <si>
+    <t>if(FOpenGLProgramBinaryCache::IsEnabled() || GetOpenGLProgramsCache().IsUsingLRU())</t>
+  </si>
+  <si>
+    <t>FOpenGL::ProgramParameter(Program, PROGRAM_BINARY_RETRIEVABLE_HINT, GL_TRUE);</t>
+  </si>
+  <si>
+    <t>// Link.</t>
+  </si>
+  <si>
+    <t>glLinkProgram(Program);</t>
+  </si>
+  <si>
+    <t>static FOpenGLLinkedProgram* LinkProgram( const FOpenGLLinkedProgramConfiguration&amp; Config, bool bFromPSOFileCache)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBoundShaderStateRHIRef FOpenGLDynamicRHI::RHICreateBoundShaderState_OnThisThread(</t>
+  </si>
+  <si>
+    <t>FRHIVertexDeclaration* VertexDeclarationRHI,</t>
+  </si>
+  <si>
+    <t>FRHIVertexShader* VertexShaderRHI,</t>
+  </si>
+  <si>
+    <t>FRHIHullShader* HullShaderRHI,</t>
+  </si>
+  <si>
+    <t>FRHIDomainShader* DomainShaderRHI,</t>
+  </si>
+  <si>
+    <t>FRHIPixelShader* PixelShaderRHI,</t>
+  </si>
+  <si>
+    <t>FRHIGeometryShader* GeometryShaderRHI,</t>
+  </si>
+  <si>
+    <t>bool bFromPSOFileCache</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>GetOpenGLProgramsCache</t>
+  </si>
+  <si>
+    <t>IsUsingLRU</t>
+  </si>
+  <si>
+    <t>FOpenGLProgramBinaryCache</t>
+  </si>
+  <si>
+    <t>该文件保存了所有的shader列表+shader code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FShaderLibraryInstance* Create(EShaderPlatform InShaderPlatform, const FString&amp; ShaderCodeDir, FString const&amp; InLibraryName)</t>
+  </si>
+  <si>
+    <t>if (!Library)</t>
+  </si>
+  <si>
+    <t>const FName PlatformName = LegacyShaderPlatformToShaderFormat(InShaderPlatform);</t>
+  </si>
+  <si>
+    <t>const FString DestFilePath = GetCodeArchiveFilename(ShaderCodeDir, InLibraryName, PlatformName);</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FArchive&gt; Ar(IFileManager::Get().CreateFileReader(*DestFilePath));</t>
+  </si>
+  <si>
+    <t>if (Ar)</t>
+  </si>
+  <si>
+    <t>uint32 Version = 0;</t>
+  </si>
+  <si>
+    <t>*Ar &lt;&lt; Version;</t>
+  </si>
+  <si>
+    <t>if (Version == GShaderCodeArchiveVersion)</t>
+  </si>
+  <si>
+    <t>Library = FShaderCodeArchive::Create(InShaderPlatform, *Ar, DestFilePath, ShaderCodeDir, InLibraryName);</t>
+  </si>
+  <si>
+    <t>if (Library)</t>
+  </si>
+  <si>
+    <t>bool ShaderCodeLibrarySeperateLoadingCacheCommandLineOverride = FParse::Param(FCommandLine::Get(), TEXT("ShaderCodeLibrarySeperateLoadingCache"));;</t>
+  </si>
+  <si>
+    <t>if (GShaderCodeLibrarySeperateLoadingCache || ShaderCodeLibrarySeperateLoadingCacheCommandLineOverride)</t>
+  </si>
+  <si>
+    <t>TArray&lt;TArray&lt;FString&gt;&gt; FilesToMakeUnique;</t>
+  </si>
+  <si>
+    <t>FilesToMakeUnique.AddDefaulted(1);</t>
+  </si>
+  <si>
+    <t>FilesToMakeUnique[0].Add(DestFilePath);</t>
+  </si>
+  <si>
+    <t>FPlatformFileManager::Get().GetPlatformFile().MakeUniquePakFilesForTheseFiles(FilesToMakeUnique);</t>
+  </si>
+  <si>
+    <t>先读取文件中所有的SerializedShaders，然后创建对饮的IFileCacheHandle，后续异步的从IFileCacheHandle中读取对应的shader code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FShaderCodeArchive* FShaderCodeArchive::Create(EShaderPlatform InPlatform, FArchive&amp; Ar, const FString&amp; InDestFilePath, const FString&amp; InLibraryDir, const FString&amp; InLibraryName)</t>
+  </si>
+  <si>
+    <t>FShaderCodeArchive* Library = new FShaderCodeArchive(InPlatform, InLibraryDir, InLibraryName);</t>
+  </si>
+  <si>
+    <t>Library-&gt;ShaderPreloads.SetNum(Library-&gt;SerializedShaders.GetNumShaders());</t>
+  </si>
+  <si>
+    <t>Library-&gt;LibraryCodeOffset = Ar.Tell();</t>
+  </si>
+  <si>
+    <t>// Open library for async reads</t>
+  </si>
+  <si>
+    <t>Library-&gt;FileCacheHandle = IFileCacheHandle::CreateFileCacheHandle(*InDestFilePath);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogShaderLibrary, Display, TEXT("Using %s for material shader code. Total %d unique shaders."), *InDestFilePath, Library-&gt;SerializedShaders.ShaderEntries.Num());</t>
+  </si>
+  <si>
+    <t>INC_DWORD_STAT_BY(STAT_Shaders_ShaderResourceMemory, Library-&gt;GetSizeBytes());</t>
+  </si>
+  <si>
+    <t>return Library;</t>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; Library-&gt;SerializedShaders;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:序列化基础的 Library-&gt;SerializedShaders;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:创建FileCacheHandle，构造函数中先读取长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; FShaderCodeArchive::CreateShader(int32 Index)</t>
+  </si>
+  <si>
+    <t>1先从preload的ShaderPreloadEntry中获取shadercode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FShaderCodeEntry&amp; ShaderEntry = SerializedShaders.ShaderEntries[Index];</t>
+  </si>
+  <si>
+    <t>FShaderPreloadEntry&amp; ShaderPreloadEntry = ShaderPreloads[Index];</t>
+  </si>
+  <si>
+    <t>void* PreloadedShaderCode = nullptr;</t>
+  </si>
+  <si>
+    <t>const bool bNeededToWait = WaitForPreload(ShaderPreloadEntry);</t>
+  </si>
+  <si>
+    <t>if (bNeededToWait)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogShaderLibrary, Warning, TEXT("Blocking wait for shader preload, NumRefs: %d, FramePreloadStarted: %d"), ShaderPreloadEntry.NumRefs, ShaderPreloadEntry.FramePreloadStarted);</t>
+  </si>
+  <si>
+    <t>FWriteScopeLock Lock(ShaderPreloadLock);</t>
+  </si>
+  <si>
+    <t>if (ShaderPreloadEntry.NumRefs &gt; 0u)</t>
+  </si>
+  <si>
+    <t>check(!ShaderPreloadEntry.PreloadEvent || ShaderPreloadEntry.PreloadEvent-&gt;IsComplete());</t>
+  </si>
+  <si>
+    <t>ShaderPreloadEntry.PreloadEvent.SafeRelease();</t>
+  </si>
+  <si>
+    <t>ShaderPreloadEntry.NumRefs++; // Hold a reference to code while we're using it to create shader</t>
+  </si>
+  <si>
+    <t>PreloadedShaderCode = ShaderPreloadEntry.Code;</t>
+  </si>
+  <si>
+    <t>check(PreloadedShaderCode);</t>
+  </si>
+  <si>
+    <t>2如果没有preload则直接加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const uint8* ShaderCode = (uint8*)PreloadedShaderCode;</t>
+  </si>
+  <si>
+    <t>if (!ShaderCode)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogShaderLibrary, Warning, TEXT("Blocking shader load, NumRefs: %d, FramePreloadStarted: %d"), ShaderPreloadEntry.NumRefs, ShaderPreloadEntry.FramePreloadStarted);</t>
+  </si>
+  <si>
+    <t>FGraphEventArray ReadCompleteEvents;</t>
+  </si>
+  <si>
+    <t>EAsyncIOPriorityAndFlags DontCache = GShaderCodeLibraryAsyncLoadingAllowDontCache ? AIOP_FLAG_DONTCACHE : AIOP_MIN;</t>
+  </si>
+  <si>
+    <t>IMemoryReadStreamRef LoadedCode = FileCacheHandle-&gt;ReadData(ReadCompleteEvents, LibraryCodeOffset + ShaderEntry.Offset, ShaderEntry.Size, AIOP_CriticalPath | DontCache);</t>
+  </si>
+  <si>
+    <t>if (ReadCompleteEvents.Num() &gt; 0)</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().WaitUntilTasksComplete(ReadCompleteEvents);</t>
+  </si>
+  <si>
+    <t>void* LoadedShaderCode = MemStack.Alloc(ShaderEntry.Size, 16);</t>
+  </si>
+  <si>
+    <t>LoadedCode-&gt;CopyTo(LoadedShaderCode, 0, ShaderEntry.Size);</t>
+  </si>
+  <si>
+    <t>ShaderCode = (uint8*)LoadedShaderCode;</t>
+  </si>
+  <si>
+    <t>3通过shadercode创建shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const auto ShaderCodeView = MakeArrayView(ShaderCode, ShaderEntry.UncompressedSize);</t>
+  </si>
+  <si>
+    <t>const FSHAHash&amp; ShaderHash = SerializedShaders.ShaderHashes[Index];</t>
+  </si>
+  <si>
+    <t>switch (ShaderEntry.Frequency)</t>
+  </si>
+  <si>
+    <t>case SF_Vertex: Shader = RHICreateVertexShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_Pixel: Shader = RHICreatePixelShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_Geometry: Shader = RHICreateGeometryShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_Hull: Shader = RHICreateHullShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_Domain: Shader = RHICreateDomainShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_Compute: Shader = RHICreateComputeShader(ShaderCodeView, ShaderHash); CheckShaderCreation(Shader, Index); break;</t>
+  </si>
+  <si>
+    <t>case SF_RayGen: case SF_RayMiss: case SF_RayHitGroup: case SF_RayCallable:</t>
+  </si>
+  <si>
+    <t>#if RHI_RAYTRACING</t>
+  </si>
+  <si>
+    <t>if (GRHISupportsRayTracing)</t>
+  </si>
+  <si>
+    <t>Shader = RHICreateRayTracingShader(ShaderCodeView, ShaderHash, ShaderEntry.GetFrequency());</t>
+  </si>
+  <si>
+    <t>CheckShaderCreation(Shader, Index);</t>
+  </si>
+  <si>
+    <t>#endif // RHI_RAYTRACING</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>default: checkNoEntry(); break;</t>
+  </si>
+  <si>
+    <t>加载shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; GetOrCreateShader(int32 ShaderIndex)</t>
+  </si>
+  <si>
+    <t>const int32 LockIndex = ShaderIndex % NumShaderLocks;</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; Shader;</t>
+  </si>
+  <si>
+    <t>FRWScopeLock Locker(ShaderLocks[LockIndex], SLT_ReadOnly);</t>
+  </si>
+  <si>
+    <t>Shader = RHIShaders[ShaderIndex];</t>
+  </si>
+  <si>
+    <t>if (!Shader)</t>
+  </si>
+  <si>
+    <t>FRWScopeLock Locker(ShaderLocks[LockIndex], SLT_Write);</t>
+  </si>
+  <si>
+    <t>Shader = Library-&gt;CreateShader(ShaderIndex);</t>
+  </si>
+  <si>
+    <t>RHIShaders[ShaderIndex] = Shader;</t>
+  </si>
+  <si>
+    <t>return Shader;</t>
+  </si>
+  <si>
+    <t>创建了则直接获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则读取shadercode 创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; FShaderMapResource_SharedCode::CreateRHIShader(int32 ShaderIndex)</t>
+  </si>
+  <si>
+    <t>const int32 LibraryShaderIndex = LibraryInstance-&gt;Library-&gt;GetShaderIndex(ShaderMapIndex, ShaderIndex);</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; ShaderRHI = LibraryInstance-&gt;GetOrCreateShader(LibraryShaderIndex);</t>
+  </si>
+  <si>
+    <t>FRHIShader* FShaderMapResource::CreateShader(int32 ShaderIndex)</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FRHIShader&gt; RHIShader = CreateRHIShader(ShaderIndex);</t>
+  </si>
+  <si>
+    <t>class RENDERCORE_API FShaderMapResource : public FRenderResource, public FDeferredCleanupInterface</t>
+  </si>
+  <si>
+    <t>inline FRHIShader* GetShader(int32 ShaderIndex)</t>
+  </si>
+  <si>
+    <t>Shader = CreateShader(ShaderIndex);</t>
+  </si>
+  <si>
+    <t>RenderThread渲染的时候需要提前获取Shader，就走下面的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为全局的shaderMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompileGlobalShaderMap(false);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>启动加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质的ShaderMap:在加载材质的时候加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading线程加载材质的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UMaterial::Serialize(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>SerializeInlineShaderMaps(</t>
+  </si>
+  <si>
+    <t>void SerializeInlineShaderMaps(</t>
+  </si>
+  <si>
+    <t>const TMap&lt;const ITargetPlatform*, TArray&lt;FMaterialResource*&gt;&gt;* PlatformMaterialResourcesToSavePtr,</t>
+  </si>
+  <si>
+    <t>FArchive&amp; Ar,</t>
+  </si>
+  <si>
+    <t>TArray&lt;FMaterialResource&gt;&amp; OutLoadedResources,</t>
+  </si>
+  <si>
+    <t>uint32* OutOffsetToFirstResource)</t>
+  </si>
+  <si>
+    <t>if (NumLoadedResources &gt; 0)</t>
+  </si>
+  <si>
+    <t>#if STORE_ONLY_ACTIVE_SHADERMAPS</t>
+  </si>
+  <si>
+    <t>ERHIFeatureLevel::Type FeatureLevel = GMaxRHIFeatureLevel;</t>
+  </si>
+  <si>
+    <t>EMaterialQualityLevel::Type QualityLevel = GetCachedScalabilityCVars().MaterialQualityLevel;</t>
+  </si>
+  <si>
+    <t>FMaterialResourceProxyReader ResourceAr(Ar, FeatureLevel, QualityLevel);</t>
+  </si>
+  <si>
+    <t>OutLoadedResources.Empty(1);</t>
+  </si>
+  <si>
+    <t>OutLoadedResources[OutLoadedResources.AddDefaulted()].SerializeInlineShaderMap(ResourceAr);</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>ERHIFeatureLevel::Type FeatureLevel = ERHIFeatureLevel::Num;</t>
+  </si>
+  <si>
+    <t>EMaterialQualityLevel::Type QualityLevel = EMaterialQualityLevel::Num;</t>
+  </si>
+  <si>
+    <t>OutLoadedResources.Empty(NumLoadedResources);</t>
+  </si>
+  <si>
+    <t>for (int32 ResourceIndex = 0; ResourceIndex &lt; NumLoadedResources; ++ResourceIndex)</t>
+  </si>
+  <si>
+    <t>FMaterialResource&amp; LoadedResource = OutLoadedResources[OutLoadedResources.AddDefaulted()];</t>
+  </si>
+  <si>
+    <t>LoadedResource.SerializeInlineShaderMap(ResourceAr);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>初始化ShaderMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMaterial::SerializeInlineShaderMap(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>if (bValid)</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FMaterialShaderMap&gt; LoadedShaderMap = new FMaterialShaderMap();</t>
+  </si>
+  <si>
+    <t>if (LoadedShaderMap-&gt;Serialize(Ar, true, bCooked &amp;&amp; Ar.IsLoading()))</t>
+  </si>
+  <si>
+    <t>GameThreadShaderMap = MoveTemp(LoadedShaderMap);</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>GameThreadShaderMap-&gt;AssociateWithAsset(GetAssetPath());</t>
+  </si>
+  <si>
+    <t>bool FMaterialShaderMap::Serialize(FArchive&amp; Ar, bool bInlineShaderResources, bool bLoadedByCookedMaterial, bool bInlineShaderCode)</t>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(FMaterialShaderMap_Serialize);</t>
+  </si>
+  <si>
+    <t>// Note: This is saved to the DDC, not into packages (except when cooked)</t>
+  </si>
+  <si>
+    <t>// Backwards compatibility therefore will not work based on the version of Ar</t>
+  </si>
+  <si>
+    <t>// Instead, just bump MATERIALSHADERMAP_DERIVEDDATA_VER</t>
+  </si>
+  <si>
+    <t>ShaderMapId.Serialize(Ar, bLoadedByCookedMaterial);</t>
+  </si>
+  <si>
+    <t>return Super::Serialize(Ar, bInlineShaderResources, bLoadedByCookedMaterial, bInlineShaderCode);</t>
+  </si>
+  <si>
+    <t>bool FShaderMapBase::Serialize(FArchive&amp; Ar, bool bInlineShaderResources, bool bLoadedByCookedMaterial, bool bInlineShaderCode)</t>
+  </si>
+  <si>
+    <t>bool bShareCode = false;</t>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; bShareCode;</t>
+  </si>
+  <si>
+    <t>if (bShareCode)</t>
+  </si>
+  <si>
+    <t>FSHAHash ResourceHash;</t>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; ResourceHash;</t>
+  </si>
+  <si>
+    <t>Resource = FShaderCodeLibrary::LoadResource(ResourceHash, &amp;Ar);</t>
+  </si>
+  <si>
+    <t>if (!Resource)</t>
+  </si>
+  <si>
+    <t>// do not warn when running -nullrhi (the resource cannot be created as the shader library will not be uninitialized),</t>
+  </si>
+  <si>
+    <t>// also do not warn for shader platforms other than current (if the game targets more than one RHI)</t>
+  </si>
+  <si>
+    <t>if (FApp::CanEverRender() &amp;&amp; GetShaderPlatform() == GMaxRHIShaderPlatform)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogShaders, Error, TEXT("Missing shader resource for hash '%s' for shader platform %d in the shader library"), *ResourceHash.ToString(), GetShaderPlatform());</t>
+  </si>
+  <si>
+    <t>bContentValid = false;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Code = new FShaderMapResourceCode();</t>
+  </si>
+  <si>
+    <t>Code-&gt;Serialize(Ar, bLoadedByCookedMaterial);</t>
+  </si>
+  <si>
+    <t>Resource = new FShaderMapResource_InlineCode(GetShaderPlatform(), Code);</t>
+  </si>
+  <si>
+    <t>这部分时重点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从ShaderCodeLibrary加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FShaderMapResource_SharedCode&gt; LoadResource(const FSHAHash&amp; Hash, FArchive* Ar)</t>
+  </si>
+  <si>
+    <t>int32 ShaderMapIndex = INDEX_NONE;</t>
+  </si>
+  <si>
+    <t>FShaderLibraryInstance* LibraryInstance = FindShaderLibraryForShaderMap(Hash, ShaderMapIndex);</t>
+  </si>
+  <si>
+    <t>if (LibraryInstance)</t>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(LoadShaderResource_Internal);</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FShaderMapResource_SharedCode&gt; Resource = LibraryInstance-&gt;GetResource(ShaderMapIndex);</t>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(LoadShaderResource_AddOrDeleteResource);</t>
+  </si>
+  <si>
+    <t>Resource = LibraryInstance-&gt;AddOrDeleteResource(new FShaderMapResource_SharedCode(LibraryInstance, ShaderMapIndex), Ar);</t>
+  </si>
+  <si>
+    <t>return Resource;</t>
+  </si>
+  <si>
+    <t>return TRefCountPtr&lt;FShaderMapResource_SharedCode&gt;();</t>
+  </si>
+  <si>
+    <t>返回对应的ShaderMap，之后从这个里面加载Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上是通过LibraryInstance-&gt;Library-&gt;GetShaderIndex(ShaderMapIndex, ShaderIndex);加载的，就是Library+ShaderMapIndex+ShaderIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSerializedShaderArchive SerializedShaders;</t>
+  </si>
+  <si>
+    <t>/** Hashes of all shadermaps in the library */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSHAHash&gt; ShaderMapHashes;</t>
+  </si>
+  <si>
+    <t>/** Output hashes of all shaders in the library */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSHAHash&gt; ShaderHashes;</t>
+  </si>
+  <si>
+    <t>/** An array of a shadermap descriptors. Each shadermap can reference an arbitrary number of shaders */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FShaderMapEntry&gt; ShaderMapEntries;</t>
+  </si>
+  <si>
+    <t>/** An array of all shaders descriptors, deduplicated */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FShaderCodeEntry&gt; ShaderEntries;</t>
+  </si>
+  <si>
+    <t>FShaderCodeArchive就是对应的ushaderbyrecode文件，里面包含了所有的Shader信息：ShaderMapHash+ShaderMapEntiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过shadermap中的index找到shader指针，然后从ShaderIndices里面获取shaderid,然后从ShaderEntries里面去获取信息（偏移+大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +792,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -109,9 +835,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:D17"/>
+  <dimension ref="B6:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,9 +1188,1632 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FAF493-2F99-467A-8554-211F1EC3183A}">
+  <dimension ref="B4:I58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292FE58-FCA1-4658-B37B-B229CB5640AF}">
+  <dimension ref="A3:P118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D73" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>199</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>208</v>
+      </c>
+      <c r="P92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A81DAC9-8C8A-462A-8BFF-06B0268C789F}">
+  <dimension ref="B3:M102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9439C4-843B-4012-93DF-D71806E4AE53}">
+  <dimension ref="B2:G69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC550DCA-5051-45A0-B748-CB26046E4A3A}">
+  <dimension ref="B5:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_pso_android.xlsx
+++ b/doc/ue_pso_android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74362AE7-29F9-41B9-8562-1DDD43BF3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200303EF-C715-45F2-96C7-201F4F98CA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="shadercode&amp;shader" sheetId="5" r:id="rId4"/>
     <sheet name="link" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="pso" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="237">
   <si>
     <t>static FORCEINLINE bool SupportsProgramBinary() { return true; }</t>
   </si>
@@ -769,6 +770,9 @@
   <si>
     <t>通过shadermap中的index找到shader指针，然后从ShaderIndices里面获取shaderid,然后从ShaderEntries里面去获取信息（偏移+大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FShaderPipelineCache::Tick( float DeltaTime )</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -2820,4 +2824,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AC76CE-E406-4FBD-9F0F-A2BA883E243B}">
+  <dimension ref="B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>